--- a/assets/2022/dollar-basics/01-dollar-basics-example-de.xlsx
+++ b/assets/2022/dollar-basics/01-dollar-basics-example-de.xlsx
@@ -367,8 +367,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -648,11 +648,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="17" width="7.42578125" style="3" customWidth="1"/>
     <col min="18" max="18" width="7.42578125" customWidth="1"/>
